--- a/pnl_calcs.xlsx
+++ b/pnl_calcs.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dave/src/neueda/flask_course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3999FE0D-F79C-E246-94C0-6645F235F40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5737B54-57CD-404A-AFFB-0F0A50FB369E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="7200" windowWidth="38400" windowHeight="21600" xr2:uid="{2CA62A83-4D0F-484B-8A47-F125202CF5A1}"/>
+    <workbookView xWindow="8480" yWindow="4120" windowWidth="38400" windowHeight="21600" xr2:uid="{2CA62A83-4D0F-484B-8A47-F125202CF5A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>sell</t>
   </si>
@@ -44,15 +44,6 @@
     <t>buy</t>
   </si>
   <si>
-    <t>Unrealized PnL</t>
-  </si>
-  <si>
-    <t>Balance</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
     <t>Long-only PnL Calculations</t>
   </si>
   <si>
@@ -71,41 +62,26 @@
     <t>Timestamp</t>
   </si>
   <si>
-    <t>Points of info</t>
-  </si>
-  <si>
-    <t>fills</t>
-  </si>
-  <si>
-    <t>tranches</t>
-  </si>
-  <si>
-    <t>Adjusted Price</t>
-  </si>
-  <si>
-    <t>Transactions</t>
-  </si>
-  <si>
-    <t>Implications for persistence</t>
-  </si>
-  <si>
-    <t>interday/intraday</t>
-  </si>
-  <si>
-    <t>Performance</t>
-  </si>
-  <si>
-    <t>vs PnL</t>
-  </si>
-  <si>
-    <t>units</t>
+    <t>Balance/Realized PnL ($)</t>
+  </si>
+  <si>
+    <t>Unrealized PnL ($)</t>
+  </si>
+  <si>
+    <t>Position Value ($)</t>
+  </si>
+  <si>
+    <t>Position (shares)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -118,6 +94,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -138,15 +121,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -479,280 +465,288 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F632F7-C21B-674D-845A-5957C2145561}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="7.1640625" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4">
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="H4" s="3">
         <v>0</v>
       </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="B5">
         <v>100</v>
       </c>
-      <c r="E5">
+      <c r="C5">
         <v>85</v>
       </c>
-      <c r="F5" s="1">
+      <c r="D5" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5">
-        <f>IF(C5="buy",H4+D5,IF(C5="sell",H4-D5,H4))</f>
+      <c r="F5">
+        <f>IF(A5="buy",F4+B5,IF(A5="sell",F4-B5,F4))</f>
         <v>100</v>
       </c>
-      <c r="I5">
-        <f>IF(C5="buy",I4-D5*E5,IF(C5="sell",I4+D5*E5,I4))</f>
+      <c r="G5" s="3">
+        <f>IF(A5="buy",G4-B5*C5,IF(A5="sell",G4+B5*C5,G4))</f>
         <v>-8500</v>
       </c>
-      <c r="J5">
-        <f>I5+H5*E5-$I$4</f>
+      <c r="H5" s="3">
+        <f>G5+F5*C5</f>
         <v>0</v>
       </c>
+      <c r="J5" s="3">
+        <f>F5*C5</f>
+        <v>8500</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="B6">
         <v>100</v>
       </c>
-      <c r="E6">
+      <c r="C6">
         <v>90</v>
       </c>
-      <c r="F6" s="1">
+      <c r="D6" s="1">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6">
-        <f>IF(C6="buy",H5+D6,IF(C6="sell",H5-D6,H5))</f>
+      <c r="E6" s="1"/>
+      <c r="F6">
+        <f>IF(A6="buy",F5+B6,IF(A6="sell",F5-B6,F5))</f>
         <v>200</v>
       </c>
-      <c r="I6">
-        <f>IF(C6="buy",I5-D6*E6,IF(C6="sell",I5+D6*E6,I5))</f>
+      <c r="G6" s="3">
+        <f>IF(A6="buy",G5-B6*C6,IF(A6="sell",G5+B6*C6,G5))</f>
         <v>-17500</v>
       </c>
-      <c r="J6">
-        <f t="shared" ref="J6:J11" si="0">I6+H6*E6-$I$4</f>
+      <c r="H6" s="3">
+        <f t="shared" ref="H6:H12" si="0">G6+F6*C6</f>
         <v>500</v>
       </c>
+      <c r="J6" s="3">
+        <f>F6*C6</f>
+        <v>18000</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E7">
+      <c r="C7">
         <v>95</v>
       </c>
-      <c r="F7" s="1">
+      <c r="D7" s="1">
         <v>0.5</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7">
-        <f>IF(C7="buy",H6+D7,IF(C7="sell",H6-D7,H6))</f>
+      <c r="E7" s="1"/>
+      <c r="F7">
+        <f>IF(A7="buy",F6+B7,IF(A7="sell",F6-B7,F6))</f>
         <v>200</v>
       </c>
-      <c r="I7">
-        <f>IF(C7="buy",I6-D7*E7,IF(C7="sell",I6+D7*E7,I6))</f>
+      <c r="G7" s="3">
+        <f>IF(A7="buy",G6-B7*C7,IF(A7="sell",G6+B7*C7,G6))</f>
         <v>-17500</v>
       </c>
-      <c r="J7">
-        <f>I7+H7*E7-$I$4</f>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
+      <c r="J7" s="3">
+        <f t="shared" ref="J7:J12" si="1">F7*C7</f>
+        <v>19000</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
+      <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="B8">
         <v>100</v>
       </c>
-      <c r="E8">
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8">
+        <f>IF(A8="buy",F7+B8,IF(A8="sell",F7-B8,F7))</f>
         <v>100</v>
       </c>
-      <c r="F8" s="1">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8">
-        <f>IF(C8="buy",H7+D8,IF(C8="sell",H7-D8,H7))</f>
+      <c r="G8" s="3">
+        <f>IF(A8="buy",G7-B8*C8,IF(A8="sell",G7+B8*C8,G7))</f>
+        <v>2500</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>22500</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>95</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F12" si="2">IF(A9="buy",F8+B9,IF(A9="sell",F8-B9,F8))</f>
         <v>100</v>
       </c>
-      <c r="I8">
-        <f>IF(C8="buy",I7-D8*E8,IF(C8="sell",I7+D8*E8,I7))</f>
-        <v>-7500</v>
-      </c>
-      <c r="J8">
+      <c r="G9" s="3">
+        <f t="shared" ref="G9:G12" si="3">IF(A9="buy",G8-B9*C9,IF(A9="sell",G8+B9*C9,G8))</f>
+        <v>2500</v>
+      </c>
+      <c r="H9" s="3">
         <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="1"/>
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>99</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="3"/>
         <v>2500</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E9">
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>12400</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="1"/>
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
         <v>95</v>
       </c>
-      <c r="F9" s="1">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="H9">
-        <f t="shared" ref="H9:H12" si="1">IF(C9="buy",H8+D9,IF(C9="sell",H8-D9,H8))</f>
-        <v>100</v>
-      </c>
-      <c r="I9">
-        <f t="shared" ref="I9:I12" si="2">IF(C9="buy",I8-D9*E9,IF(C9="sell",I8+D9*E9,I8))</f>
-        <v>-7500</v>
-      </c>
-      <c r="J9">
+      <c r="D11" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="3"/>
+        <v>7250</v>
+      </c>
+      <c r="H11" s="3">
         <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>100</v>
-      </c>
-      <c r="E10">
-        <v>95</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="H10">
+        <v>12000</v>
+      </c>
+      <c r="J11" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I10">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>98</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="J10">
+        <v>50</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="3"/>
+        <v>7250</v>
+      </c>
+      <c r="H12" s="3">
         <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E11">
-        <v>200</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H11">
+        <v>12150</v>
+      </c>
+      <c r="J12" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>20</v>
+        <v>4900</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_calcs.xlsx
+++ b/pnl_calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dave/src/neueda/flask_course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5737B54-57CD-404A-AFFB-0F0A50FB369E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55F285A-63FE-D144-A686-E86284270BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8480" yWindow="4120" windowWidth="38400" windowHeight="21600" xr2:uid="{2CA62A83-4D0F-484B-8A47-F125202CF5A1}"/>
+    <workbookView xWindow="51140" yWindow="7200" windowWidth="38400" windowHeight="21600" xr2:uid="{2CA62A83-4D0F-484B-8A47-F125202CF5A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>sell</t>
   </si>
@@ -68,10 +68,10 @@
     <t>Unrealized PnL ($)</t>
   </si>
   <si>
-    <t>Position Value ($)</t>
-  </si>
-  <si>
     <t>Position (shares)</t>
+  </si>
+  <si>
+    <t>avg price / share</t>
   </si>
 </sst>
 </file>
@@ -125,11 +125,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -465,9 +466,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F632F7-C21B-674D-845A-5957C2145561}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -492,7 +495,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
@@ -501,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -526,9 +529,7 @@
       <c r="H4" s="3">
         <v>0</v>
       </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -556,8 +557,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="3">
-        <f>F5*C5</f>
-        <v>8500</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -586,9 +586,9 @@
         <f t="shared" ref="H6:H12" si="0">G6+F6*C6</f>
         <v>500</v>
       </c>
-      <c r="J6" s="3">
-        <f>F6*C6</f>
-        <v>18000</v>
+      <c r="J6" s="4">
+        <f>(B6*C6+B5*C5)/F6</f>
+        <v>87.5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -611,10 +611,7 @@
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="J7" s="3">
-        <f t="shared" ref="J7:J12" si="1">F7*C7</f>
-        <v>19000</v>
-      </c>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -642,9 +639,9 @@
         <f t="shared" si="0"/>
         <v>22500</v>
       </c>
-      <c r="J8" s="3">
-        <f t="shared" si="1"/>
-        <v>20000</v>
+      <c r="J8" s="4">
+        <f>(B8*C8+B7*C7)/F8</f>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -655,21 +652,18 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9:F12" si="2">IF(A9="buy",F8+B9,IF(A9="sell",F8-B9,F8))</f>
+        <f t="shared" ref="F9:F12" si="1">IF(A9="buy",F8+B9,IF(A9="sell",F8-B9,F8))</f>
         <v>100</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" ref="G9:G12" si="3">IF(A9="buy",G8-B9*C9,IF(A9="sell",G8+B9*C9,G8))</f>
+        <f t="shared" ref="G9:G12" si="2">IF(A9="buy",G8-B9*C9,IF(A9="sell",G8+B9*C9,G8))</f>
         <v>2500</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
-      <c r="J9" s="3">
-        <f t="shared" si="1"/>
-        <v>9500</v>
-      </c>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C10">
@@ -679,21 +673,18 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F10">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" si="3"/>
         <v>2500</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="0"/>
         <v>12400</v>
       </c>
-      <c r="J10" s="3">
-        <f t="shared" si="1"/>
-        <v>9900</v>
-      </c>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -709,21 +700,18 @@
         <v>0.625</v>
       </c>
       <c r="F11">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G11" s="3">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="3"/>
         <v>7250</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
-      <c r="J11" s="3">
-        <f t="shared" si="1"/>
-        <v>4750</v>
-      </c>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C12">
@@ -733,20 +721,131 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F12">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G12" s="3">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" si="3"/>
         <v>7250</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="0"/>
         <v>12150</v>
       </c>
-      <c r="J12" s="3">
-        <f t="shared" si="1"/>
-        <v>4900</v>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>85</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F21">
+        <f>IF(A21="buy",F20+B21,IF(A21="sell",F20-B21,F20))</f>
+        <v>100</v>
+      </c>
+      <c r="J21">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <v>90</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F22">
+        <f>IF(A22="buy",F21+B22,IF(A22="sell",F21-B22,F21))</f>
+        <v>200</v>
+      </c>
+      <c r="J22" s="4">
+        <f>(J21*F21+C22*B22)/F22</f>
+        <v>87.5</v>
+      </c>
+      <c r="K22">
+        <f>F22*(C22-J22)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>-100</v>
+      </c>
+      <c r="C23">
+        <v>200</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" ref="J23:J24" si="3">(J22*F22+C23*B23)/F23</f>
+        <v>-25</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23:K24" si="4">F23*(C23-J23)</f>
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>-50</v>
+      </c>
+      <c r="C24">
+        <v>95</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="3"/>
+        <v>-145</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>12000</v>
       </c>
     </row>
   </sheetData>
